--- a/resources/data_summary.xlsx
+++ b/resources/data_summary.xlsx
@@ -12,12 +12,11 @@
     <sheet name="download" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="221">
   <si>
     <t>항목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -739,6 +738,46 @@
   </si>
   <si>
     <t>소속조중량상한선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계절(월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당거리전적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이팅(제주는 승급점수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부담중량 증감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 출전일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기수 훈련일, 훈련시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마체중변화 / 공백출전일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부담중량 증감 / 공백출전일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -797,7 +836,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -819,6 +858,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,7 +900,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -902,6 +947,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1497,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.8984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1998,10 +2049,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2012,14 +2063,15 @@
     <col min="4" max="4" width="12.296875" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="11.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>148</v>
       </c>
@@ -2038,8 +2090,11 @@
       <c r="F2" s="13" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G2" s="16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>149</v>
       </c>
@@ -2058,8 +2113,11 @@
       <c r="F3" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G3" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>150</v>
       </c>
@@ -2078,8 +2136,11 @@
       <c r="F4" s="8" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G4" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="15" t="s">
         <v>151</v>
       </c>
@@ -2098,8 +2159,11 @@
       <c r="F5" s="8" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G5" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>152</v>
       </c>
@@ -2118,8 +2182,11 @@
       <c r="F6" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G6" s="17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>58</v>
       </c>
@@ -2138,8 +2205,11 @@
       <c r="F7" s="8" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>153</v>
       </c>
@@ -2158,8 +2228,11 @@
       <c r="F8" s="8" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>154</v>
       </c>
@@ -2178,8 +2251,11 @@
       <c r="F9" s="8" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="15" t="s">
         <v>155</v>
       </c>
@@ -2198,8 +2274,11 @@
       <c r="F10" s="8" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>156</v>
       </c>
@@ -2218,8 +2297,11 @@
       <c r="F11" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>157</v>
       </c>
@@ -2236,7 +2318,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
         <v>158</v>
       </c>
@@ -2250,7 +2332,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
         <v>159</v>
       </c>
@@ -2261,7 +2343,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
         <v>160</v>
       </c>
@@ -2272,7 +2354,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>161</v>
       </c>

--- a/resources/data_summary.xlsx
+++ b/resources/data_summary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="223">
   <si>
     <t>항목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -778,6 +778,14 @@
   </si>
   <si>
     <t>부담중량 증감 / 공백출전일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마필가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연대점수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -836,7 +844,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -864,6 +872,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,7 +914,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -953,6 +967,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2052,7 +2069,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2205,7 +2222,7 @@
       <c r="F7" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="10" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2228,7 +2245,7 @@
       <c r="F8" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="10" t="s">
         <v>217</v>
       </c>
     </row>
@@ -2251,7 +2268,7 @@
       <c r="F9" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="10" t="s">
         <v>220</v>
       </c>
     </row>
@@ -2274,7 +2291,7 @@
       <c r="F10" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="10" t="s">
         <v>219</v>
       </c>
     </row>
@@ -2297,7 +2314,7 @@
       <c r="F11" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="10" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2317,6 +2334,9 @@
       <c r="F12" s="12" t="s">
         <v>209</v>
       </c>
+      <c r="G12" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
@@ -2330,6 +2350,9 @@
       </c>
       <c r="F13" s="12" t="s">
         <v>210</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
